--- a/bots/crawl_ch/output/vegi_coop_2023-01-06.xlsx
+++ b/bots/crawl_ch/output/vegi_coop_2023-01-06.xlsx
@@ -575,7 +575,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -644,7 +644,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -782,7 +782,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -912,7 +912,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -1111,7 +1111,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -1314,7 +1314,7 @@
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -1379,7 +1379,7 @@
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -1586,7 +1586,7 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -1858,7 +1858,7 @@
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -1923,7 +1923,7 @@
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -1992,7 +1992,7 @@
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -2057,7 +2057,7 @@
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -2126,7 +2126,7 @@
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -2195,7 +2195,7 @@
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -2264,7 +2264,7 @@
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -2398,7 +2398,7 @@
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -2467,7 +2467,7 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -2536,7 +2536,7 @@
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -2743,7 +2743,7 @@
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -2881,7 +2881,7 @@
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -2950,7 +2950,7 @@
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -3019,7 +3019,7 @@
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -3088,7 +3088,7 @@
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3153,7 @@
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -3222,7 +3222,7 @@
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -3291,7 +3291,7 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -3356,7 +3356,7 @@
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -3425,7 +3425,7 @@
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -3494,7 +3494,7 @@
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -3563,7 +3563,7 @@
       <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -3693,7 +3693,7 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -3762,7 +3762,7 @@
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -3831,7 +3831,7 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -3896,7 +3896,7 @@
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -3965,7 +3965,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -4038,7 +4038,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -4107,7 +4107,7 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4176,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -4249,7 +4249,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -4391,7 +4391,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -4456,7 +4456,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -4590,7 +4590,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -4655,7 +4655,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -4720,7 +4720,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -4785,7 +4785,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -4850,7 +4850,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -4919,7 +4919,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -4984,7 +4984,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -5053,7 +5053,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -5118,7 +5118,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -5183,7 +5183,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -5252,7 +5252,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -5321,7 +5321,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -5390,7 +5390,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -5459,7 +5459,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -5528,7 +5528,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -5597,7 +5597,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -5662,7 +5662,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -5731,7 +5731,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5796,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -5861,7 +5861,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -5914,7 +5914,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -5987,7 +5987,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -6040,7 +6040,7 @@
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -6105,7 +6105,7 @@
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -6168,7 +6168,7 @@
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -6237,7 +6237,7 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -6302,7 +6302,7 @@
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -6371,7 +6371,7 @@
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -6440,7 +6440,7 @@
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -6505,7 +6505,7 @@
       <c r="N90" t="inlineStr"/>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -6574,7 +6574,7 @@
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -6643,7 +6643,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -6708,7 +6708,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -6773,7 +6773,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -6838,7 +6838,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -6903,7 +6903,7 @@
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -6972,7 +6972,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -7041,7 +7041,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -7106,7 +7106,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -7175,7 +7175,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -7244,7 +7244,7 @@
       <c r="N101" t="inlineStr"/>
       <c r="O101" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -7313,7 +7313,7 @@
       <c r="N102" t="inlineStr"/>
       <c r="O102" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -7382,7 +7382,7 @@
       <c r="N103" t="inlineStr"/>
       <c r="O103" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -7447,7 +7447,7 @@
       <c r="N104" t="inlineStr"/>
       <c r="O104" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -7516,7 +7516,7 @@
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -7585,7 +7585,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -7650,7 +7650,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -7715,7 +7715,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -7784,7 +7784,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -7853,7 +7853,7 @@
       <c r="N110" t="inlineStr"/>
       <c r="O110" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -7922,7 +7922,7 @@
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -7991,7 +7991,7 @@
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -8060,7 +8060,7 @@
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -8129,7 +8129,7 @@
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -8194,7 +8194,7 @@
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -8259,7 +8259,7 @@
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -8328,7 +8328,7 @@
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -8458,7 +8458,7 @@
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -8527,7 +8527,7 @@
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -8596,7 +8596,7 @@
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -8665,7 +8665,7 @@
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -8734,7 +8734,7 @@
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -8807,7 +8807,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -8876,7 +8876,7 @@
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -8949,7 +8949,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -9018,7 +9018,7 @@
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -9087,7 +9087,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -9160,7 +9160,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -9229,7 +9229,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -9302,7 +9302,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -9371,7 +9371,7 @@
       <c r="N132" t="inlineStr"/>
       <c r="O132" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -9440,7 +9440,7 @@
       <c r="N133" t="inlineStr"/>
       <c r="O133" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -9509,7 +9509,7 @@
       <c r="N134" t="inlineStr"/>
       <c r="O134" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -9578,7 +9578,7 @@
       <c r="N135" t="inlineStr"/>
       <c r="O135" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -9599,7 +9599,7 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E136" t="n">
         <v>4.5</v>
@@ -9647,7 +9647,7 @@
       <c r="N136" t="inlineStr"/>
       <c r="O136" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -9712,7 +9712,7 @@
       <c r="N137" t="inlineStr"/>
       <c r="O137" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -9781,7 +9781,7 @@
       <c r="N138" t="inlineStr"/>
       <c r="O138" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -9850,7 +9850,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -9919,7 +9919,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -9988,7 +9988,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -10053,7 +10053,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -10122,7 +10122,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -10191,7 +10191,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -10256,7 +10256,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -10390,7 +10390,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -10459,7 +10459,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -10528,7 +10528,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -10593,7 +10593,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -10666,7 +10666,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -10739,7 +10739,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -10804,7 +10804,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -10869,7 +10869,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -10934,7 +10934,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -11003,7 +11003,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -11072,7 +11072,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -11141,7 +11141,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -11210,7 +11210,7 @@
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -11275,7 +11275,7 @@
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -11340,7 +11340,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -11413,7 +11413,7 @@
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -11482,7 +11482,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -11549,7 +11549,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -11618,7 +11618,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -11683,7 +11683,7 @@
       <c r="N166" t="inlineStr"/>
       <c r="O166" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -11748,7 +11748,7 @@
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -11801,7 +11801,7 @@
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -11870,7 +11870,7 @@
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -11939,7 +11939,7 @@
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -12012,7 +12012,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -12085,7 +12085,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -12158,7 +12158,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -12223,7 +12223,7 @@
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -12292,7 +12292,7 @@
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -12361,7 +12361,7 @@
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -12430,7 +12430,7 @@
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -12495,7 +12495,7 @@
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -12568,7 +12568,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -12637,7 +12637,7 @@
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -12690,7 +12690,7 @@
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -12753,7 +12753,7 @@
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -12826,7 +12826,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -12895,7 +12895,7 @@
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -12964,7 +12964,7 @@
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -13033,7 +13033,7 @@
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -13098,7 +13098,7 @@
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -13171,7 +13171,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -13244,7 +13244,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -13313,7 +13313,7 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -13334,7 +13334,7 @@
         </is>
       </c>
       <c r="D191" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="n">
         <v>4</v>
@@ -13382,7 +13382,7 @@
       <c r="N191" t="inlineStr"/>
       <c r="O191" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -13455,7 +13455,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -13476,7 +13476,7 @@
         </is>
       </c>
       <c r="D193" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="n">
         <v>4</v>
@@ -13524,7 +13524,7 @@
       <c r="N193" t="inlineStr"/>
       <c r="O193" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -13593,7 +13593,7 @@
       <c r="N194" t="inlineStr"/>
       <c r="O194" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -13662,7 +13662,7 @@
       <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -13731,7 +13731,7 @@
       <c r="N196" t="inlineStr"/>
       <c r="O196" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -13800,7 +13800,7 @@
       <c r="N197" t="inlineStr"/>
       <c r="O197" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -13873,7 +13873,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -13942,7 +13942,7 @@
       <c r="N199" t="inlineStr"/>
       <c r="O199" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -14007,7 +14007,7 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -14076,7 +14076,7 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -14149,7 +14149,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -14214,7 +14214,7 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -14283,7 +14283,7 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -14352,7 +14352,7 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -14417,7 +14417,7 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -14486,7 +14486,7 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -14551,7 +14551,7 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -14620,7 +14620,7 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -14689,7 +14689,7 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -14758,7 +14758,7 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -14825,7 +14825,7 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -14888,7 +14888,7 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -14961,7 +14961,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -15030,7 +15030,7 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -15095,7 +15095,7 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -15160,7 +15160,7 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -15233,7 +15233,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -15298,7 +15298,7 @@
       <c r="N219" t="inlineStr"/>
       <c r="O219" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -15363,7 +15363,7 @@
       <c r="N220" t="inlineStr"/>
       <c r="O220" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -15432,7 +15432,7 @@
       <c r="N221" t="inlineStr"/>
       <c r="O221" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -15481,7 +15481,7 @@
       <c r="N222" t="inlineStr"/>
       <c r="O222" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -15550,7 +15550,7 @@
       <c r="N223" t="inlineStr"/>
       <c r="O223" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -15623,7 +15623,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -15688,7 +15688,7 @@
       <c r="N225" t="inlineStr"/>
       <c r="O225" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -15761,7 +15761,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -15830,7 +15830,7 @@
       <c r="N227" t="inlineStr"/>
       <c r="O227" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -15895,7 +15895,7 @@
       <c r="N228" t="inlineStr"/>
       <c r="O228" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -15964,7 +15964,7 @@
       <c r="N229" t="inlineStr"/>
       <c r="O229" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -16033,7 +16033,7 @@
       <c r="N230" t="inlineStr"/>
       <c r="O230" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -16102,7 +16102,7 @@
       <c r="N231" t="inlineStr"/>
       <c r="O231" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -16175,7 +16175,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -16226,7 +16226,7 @@
       <c r="N233" t="inlineStr"/>
       <c r="O233" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -16295,7 +16295,7 @@
       <c r="N234" t="inlineStr"/>
       <c r="O234" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -16368,7 +16368,7 @@
       </c>
       <c r="O235" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -16433,7 +16433,7 @@
       <c r="N236" t="inlineStr"/>
       <c r="O236" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -16502,7 +16502,7 @@
       <c r="N237" t="inlineStr"/>
       <c r="O237" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -16523,7 +16523,7 @@
         </is>
       </c>
       <c r="D238" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E238" t="n">
         <v>4.5</v>
@@ -16575,7 +16575,7 @@
       </c>
       <c r="O238" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -16644,7 +16644,7 @@
       <c r="N239" t="inlineStr"/>
       <c r="O239" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -16665,7 +16665,7 @@
         </is>
       </c>
       <c r="D240" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E240" t="n">
         <v>5</v>
@@ -16717,7 +16717,7 @@
       </c>
       <c r="O240" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -16786,7 +16786,7 @@
       <c r="N241" t="inlineStr"/>
       <c r="O241" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -16855,7 +16855,7 @@
       <c r="N242" t="inlineStr"/>
       <c r="O242" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -16920,7 +16920,7 @@
       <c r="N243" t="inlineStr"/>
       <c r="O243" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -16993,7 +16993,7 @@
       </c>
       <c r="O244" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -17062,7 +17062,7 @@
       <c r="N245" t="inlineStr"/>
       <c r="O245" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -17131,7 +17131,7 @@
       <c r="N246" t="inlineStr"/>
       <c r="O246" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -17200,7 +17200,7 @@
       <c r="N247" t="inlineStr"/>
       <c r="O247" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -17273,7 +17273,7 @@
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -17346,7 +17346,7 @@
       </c>
       <c r="O249" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -17415,7 +17415,7 @@
       <c r="N250" t="inlineStr"/>
       <c r="O250" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -17484,7 +17484,7 @@
       <c r="N251" t="inlineStr"/>
       <c r="O251" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -17557,7 +17557,7 @@
       </c>
       <c r="O252" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -17626,7 +17626,7 @@
       <c r="N253" t="inlineStr"/>
       <c r="O253" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -17699,7 +17699,7 @@
       </c>
       <c r="O254" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -17768,7 +17768,7 @@
       <c r="N255" t="inlineStr"/>
       <c r="O255" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -17835,7 +17835,7 @@
       <c r="N256" t="inlineStr"/>
       <c r="O256" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -17908,7 +17908,7 @@
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -17981,7 +17981,7 @@
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -18050,7 +18050,7 @@
       <c r="N259" t="inlineStr"/>
       <c r="O259" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -18115,7 +18115,7 @@
       <c r="N260" t="inlineStr"/>
       <c r="O260" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -18188,7 +18188,7 @@
       </c>
       <c r="O261" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -18261,7 +18261,7 @@
       </c>
       <c r="O262" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -18326,7 +18326,7 @@
       <c r="N263" t="inlineStr"/>
       <c r="O263" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -18391,7 +18391,7 @@
       <c r="N264" t="inlineStr"/>
       <c r="O264" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -18464,7 +18464,7 @@
       </c>
       <c r="O265" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -18537,7 +18537,7 @@
       </c>
       <c r="O266" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -18606,7 +18606,7 @@
       <c r="N267" t="inlineStr"/>
       <c r="O267" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -18675,7 +18675,7 @@
       <c r="N268" t="inlineStr"/>
       <c r="O268" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -18748,7 +18748,7 @@
       </c>
       <c r="O269" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -18817,7 +18817,7 @@
       <c r="N270" t="inlineStr"/>
       <c r="O270" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -18886,7 +18886,7 @@
       <c r="N271" t="inlineStr"/>
       <c r="O271" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -18955,7 +18955,7 @@
       <c r="N272" t="inlineStr"/>
       <c r="O272" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -19028,7 +19028,7 @@
       </c>
       <c r="O273" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -19093,7 +19093,7 @@
       <c r="N274" t="inlineStr"/>
       <c r="O274" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -19166,7 +19166,7 @@
       </c>
       <c r="O275" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -19239,7 +19239,7 @@
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -19312,7 +19312,7 @@
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -19377,7 +19377,7 @@
       <c r="N278" t="inlineStr"/>
       <c r="O278" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -19446,7 +19446,7 @@
       <c r="N279" t="inlineStr"/>
       <c r="O279" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -19519,7 +19519,7 @@
       </c>
       <c r="O280" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -19588,7 +19588,7 @@
       <c r="N281" t="inlineStr"/>
       <c r="O281" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -19659,7 +19659,7 @@
       </c>
       <c r="O282" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -19732,7 +19732,7 @@
       </c>
       <c r="O283" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -19801,7 +19801,7 @@
       <c r="N284" t="inlineStr"/>
       <c r="O284" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -19874,7 +19874,7 @@
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -19943,7 +19943,7 @@
       <c r="N286" t="inlineStr"/>
       <c r="O286" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -20008,7 +20008,7 @@
       <c r="N287" t="inlineStr"/>
       <c r="O287" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -20077,7 +20077,7 @@
       <c r="N288" t="inlineStr"/>
       <c r="O288" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -20142,7 +20142,7 @@
       <c r="N289" t="inlineStr"/>
       <c r="O289" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -20207,7 +20207,7 @@
       <c r="N290" t="inlineStr"/>
       <c r="O290" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -20272,7 +20272,7 @@
       <c r="N291" t="inlineStr"/>
       <c r="O291" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -20345,7 +20345,7 @@
       </c>
       <c r="O292" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -20418,7 +20418,7 @@
       </c>
       <c r="O293" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -20491,7 +20491,7 @@
       </c>
       <c r="O294" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -20560,7 +20560,7 @@
       <c r="N295" t="inlineStr"/>
       <c r="O295" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -20633,7 +20633,7 @@
       </c>
       <c r="O296" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -20698,7 +20698,7 @@
       <c r="N297" t="inlineStr"/>
       <c r="O297" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -20763,7 +20763,7 @@
       <c r="N298" t="inlineStr"/>
       <c r="O298" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -20836,7 +20836,7 @@
       </c>
       <c r="O299" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -20909,7 +20909,7 @@
       </c>
       <c r="O300" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -20978,7 +20978,7 @@
       <c r="N301" t="inlineStr"/>
       <c r="O301" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -21051,7 +21051,7 @@
       </c>
       <c r="O302" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -21114,7 +21114,7 @@
       <c r="N303" t="inlineStr"/>
       <c r="O303" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -21187,7 +21187,7 @@
       </c>
       <c r="O304" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -21252,7 +21252,7 @@
       <c r="N305" t="inlineStr"/>
       <c r="O305" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -21325,7 +21325,7 @@
       </c>
       <c r="O306" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -21390,7 +21390,7 @@
       <c r="N307" t="inlineStr"/>
       <c r="O307" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -21455,7 +21455,7 @@
       <c r="N308" t="inlineStr"/>
       <c r="O308" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -21528,7 +21528,7 @@
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -21591,7 +21591,7 @@
       <c r="N310" t="inlineStr"/>
       <c r="O310" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -21660,7 +21660,7 @@
       <c r="N311" t="inlineStr"/>
       <c r="O311" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -21729,7 +21729,7 @@
       <c r="N312" t="inlineStr"/>
       <c r="O312" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -21798,7 +21798,7 @@
       <c r="N313" t="inlineStr"/>
       <c r="O313" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -21871,7 +21871,7 @@
       </c>
       <c r="O314" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -21936,7 +21936,7 @@
       <c r="N315" t="inlineStr"/>
       <c r="O315" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -22009,7 +22009,7 @@
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -22082,7 +22082,7 @@
       </c>
       <c r="O317" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -22155,7 +22155,7 @@
       </c>
       <c r="O318" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -22224,7 +22224,7 @@
       </c>
       <c r="O319" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -22293,7 +22293,7 @@
       <c r="N320" t="inlineStr"/>
       <c r="O320" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -22366,7 +22366,7 @@
       </c>
       <c r="O321" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -22439,7 +22439,7 @@
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -22508,7 +22508,7 @@
       <c r="N323" t="inlineStr"/>
       <c r="O323" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -22577,7 +22577,7 @@
       <c r="N324" t="inlineStr"/>
       <c r="O324" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -22650,7 +22650,7 @@
       </c>
       <c r="O325" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -22713,7 +22713,7 @@
       <c r="N326" t="inlineStr"/>
       <c r="O326" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -22778,7 +22778,7 @@
       <c r="N327" t="inlineStr"/>
       <c r="O327" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -22847,7 +22847,7 @@
       <c r="N328" t="inlineStr"/>
       <c r="O328" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -22916,7 +22916,7 @@
       <c r="N329" t="inlineStr"/>
       <c r="O329" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -22989,7 +22989,7 @@
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -23062,7 +23062,7 @@
       </c>
       <c r="O331" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -23135,7 +23135,7 @@
       </c>
       <c r="O332" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -23208,7 +23208,7 @@
       </c>
       <c r="O333" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -23259,7 +23259,7 @@
       <c r="N334" t="inlineStr"/>
       <c r="O334" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -23332,7 +23332,7 @@
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -23405,7 +23405,7 @@
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -23458,7 +23458,7 @@
       <c r="N337" t="inlineStr"/>
       <c r="O337" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -23523,7 +23523,7 @@
       <c r="N338" t="inlineStr"/>
       <c r="O338" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -23596,7 +23596,7 @@
       </c>
       <c r="O339" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -23669,7 +23669,7 @@
       </c>
       <c r="O340" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -23718,7 +23718,7 @@
       <c r="N341" t="inlineStr"/>
       <c r="O341" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -23787,7 +23787,7 @@
       <c r="N342" t="inlineStr"/>
       <c r="O342" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -23852,7 +23852,7 @@
       <c r="N343" t="inlineStr"/>
       <c r="O343" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -23917,7 +23917,7 @@
       <c r="N344" t="inlineStr"/>
       <c r="O344" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -23986,7 +23986,7 @@
       <c r="N345" t="inlineStr"/>
       <c r="O345" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -24055,7 +24055,7 @@
       <c r="N346" t="inlineStr"/>
       <c r="O346" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -24118,7 +24118,7 @@
       <c r="N347" t="inlineStr"/>
       <c r="O347" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -24183,7 +24183,7 @@
       <c r="N348" t="inlineStr"/>
       <c r="O348" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -24246,7 +24246,7 @@
       <c r="N349" t="inlineStr"/>
       <c r="O349" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -24319,7 +24319,7 @@
       </c>
       <c r="O350" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -24388,7 +24388,7 @@
       <c r="N351" t="inlineStr"/>
       <c r="O351" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -24461,7 +24461,7 @@
       </c>
       <c r="O352" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -24530,7 +24530,7 @@
       <c r="N353" t="inlineStr"/>
       <c r="O353" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -24603,7 +24603,7 @@
       </c>
       <c r="O354" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -24672,7 +24672,7 @@
       <c r="N355" t="inlineStr"/>
       <c r="O355" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -24739,7 +24739,7 @@
       <c r="N356" t="inlineStr"/>
       <c r="O356" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -24812,7 +24812,7 @@
       </c>
       <c r="O357" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -24885,7 +24885,7 @@
       </c>
       <c r="O358" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -24958,7 +24958,7 @@
       </c>
       <c r="O359" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -25031,7 +25031,7 @@
       </c>
       <c r="O360" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -25096,7 +25096,7 @@
       <c r="N361" t="inlineStr"/>
       <c r="O361" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -25161,7 +25161,7 @@
       <c r="N362" t="inlineStr"/>
       <c r="O362" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -25234,7 +25234,7 @@
       </c>
       <c r="O363" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -25307,7 +25307,7 @@
       </c>
       <c r="O364" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -25376,7 +25376,7 @@
       <c r="N365" t="inlineStr"/>
       <c r="O365" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -25445,7 +25445,7 @@
       <c r="N366" t="inlineStr"/>
       <c r="O366" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -25518,7 +25518,7 @@
       </c>
       <c r="O367" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -25587,7 +25587,7 @@
       <c r="N368" t="inlineStr"/>
       <c r="O368" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -25656,7 +25656,7 @@
       <c r="N369" t="inlineStr"/>
       <c r="O369" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -25729,7 +25729,7 @@
       </c>
       <c r="O370" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -25798,7 +25798,7 @@
       <c r="N371" t="inlineStr"/>
       <c r="O371" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -25871,7 +25871,7 @@
       </c>
       <c r="O372" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -25940,7 +25940,7 @@
       <c r="N373" t="inlineStr"/>
       <c r="O373" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -26005,7 +26005,7 @@
       <c r="N374" t="inlineStr"/>
       <c r="O374" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -26070,7 +26070,7 @@
       <c r="N375" t="inlineStr"/>
       <c r="O375" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -26143,7 +26143,7 @@
       </c>
       <c r="O376" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -26212,7 +26212,7 @@
       <c r="N377" t="inlineStr"/>
       <c r="O377" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -26285,7 +26285,7 @@
       </c>
       <c r="O378" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -26358,7 +26358,7 @@
       </c>
       <c r="O379" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -26431,7 +26431,7 @@
       </c>
       <c r="O380" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -26500,7 +26500,7 @@
       <c r="N381" t="inlineStr"/>
       <c r="O381" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -26573,7 +26573,7 @@
       </c>
       <c r="O382" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -26644,7 +26644,7 @@
       </c>
       <c r="O383" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -26717,7 +26717,7 @@
       </c>
       <c r="O384" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -26790,7 +26790,7 @@
       </c>
       <c r="O385" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -26855,7 +26855,7 @@
       <c r="N386" t="inlineStr"/>
       <c r="O386" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -26928,7 +26928,7 @@
       </c>
       <c r="O387" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -27001,7 +27001,7 @@
       </c>
       <c r="O388" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -27074,7 +27074,7 @@
       </c>
       <c r="O389" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -27143,7 +27143,7 @@
       <c r="N390" t="inlineStr"/>
       <c r="O390" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -27216,7 +27216,7 @@
       </c>
       <c r="O391" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -27289,7 +27289,7 @@
       </c>
       <c r="O392" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -27362,7 +27362,7 @@
       </c>
       <c r="O393" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -27431,7 +27431,7 @@
       <c r="N394" t="inlineStr"/>
       <c r="O394" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -27504,7 +27504,7 @@
       </c>
       <c r="O395" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -27577,7 +27577,7 @@
       </c>
       <c r="O396" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -27626,7 +27626,7 @@
       <c r="N397" t="inlineStr"/>
       <c r="O397" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -27695,7 +27695,7 @@
       <c r="N398" t="inlineStr"/>
       <c r="O398" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -27768,7 +27768,7 @@
       </c>
       <c r="O399" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -27841,7 +27841,7 @@
       </c>
       <c r="O400" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -27910,7 +27910,7 @@
       <c r="N401" t="inlineStr"/>
       <c r="O401" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -27977,7 +27977,7 @@
       <c r="N402" t="inlineStr"/>
       <c r="O402" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -28042,7 +28042,7 @@
       <c r="N403" t="inlineStr"/>
       <c r="O403" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -28115,7 +28115,7 @@
       </c>
       <c r="O404" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -28188,7 +28188,7 @@
       </c>
       <c r="O405" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -28251,7 +28251,7 @@
       <c r="N406" t="inlineStr"/>
       <c r="O406" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -28320,7 +28320,7 @@
       </c>
       <c r="O407" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -28389,7 +28389,7 @@
       <c r="N408" t="inlineStr"/>
       <c r="O408" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -28462,7 +28462,7 @@
       </c>
       <c r="O409" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -28535,7 +28535,7 @@
       </c>
       <c r="O410" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -28608,7 +28608,7 @@
       </c>
       <c r="O411" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -28673,7 +28673,7 @@
       <c r="N412" t="inlineStr"/>
       <c r="O412" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -28738,7 +28738,7 @@
       <c r="N413" t="inlineStr"/>
       <c r="O413" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -28811,7 +28811,7 @@
       </c>
       <c r="O414" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -28884,7 +28884,7 @@
       </c>
       <c r="O415" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -28957,7 +28957,7 @@
       </c>
       <c r="O416" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -29020,7 +29020,7 @@
       <c r="N417" t="inlineStr"/>
       <c r="O417" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -29093,7 +29093,7 @@
       </c>
       <c r="O418" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -29166,7 +29166,7 @@
       </c>
       <c r="O419" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -29235,7 +29235,7 @@
       <c r="N420" t="inlineStr"/>
       <c r="O420" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -29308,7 +29308,7 @@
       </c>
       <c r="O421" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -29381,7 +29381,7 @@
       </c>
       <c r="O422" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -29454,7 +29454,7 @@
       </c>
       <c r="O423" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -29527,7 +29527,7 @@
       </c>
       <c r="O424" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -29600,7 +29600,7 @@
       </c>
       <c r="O425" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -29673,7 +29673,7 @@
       </c>
       <c r="O426" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -29738,7 +29738,7 @@
       <c r="N427" t="inlineStr"/>
       <c r="O427" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -29811,7 +29811,7 @@
       </c>
       <c r="O428" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -29880,7 +29880,7 @@
       <c r="N429" t="inlineStr"/>
       <c r="O429" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -29953,7 +29953,7 @@
       </c>
       <c r="O430" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -30026,7 +30026,7 @@
       </c>
       <c r="O431" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -30079,7 +30079,7 @@
       <c r="N432" t="inlineStr"/>
       <c r="O432" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -30152,7 +30152,7 @@
       </c>
       <c r="O433" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -30205,7 +30205,7 @@
       <c r="N434" t="inlineStr"/>
       <c r="O434" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -30274,7 +30274,7 @@
       <c r="N435" t="inlineStr"/>
       <c r="O435" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -30347,7 +30347,7 @@
       </c>
       <c r="O436" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -30414,7 +30414,7 @@
       <c r="N437" t="inlineStr"/>
       <c r="O437" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -30487,7 +30487,7 @@
       </c>
       <c r="O438" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -30560,7 +30560,7 @@
       </c>
       <c r="O439" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -30633,7 +30633,7 @@
       </c>
       <c r="O440" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -30700,7 +30700,7 @@
       <c r="N441" t="inlineStr"/>
       <c r="O441" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -30771,7 +30771,7 @@
       </c>
       <c r="O442" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -30844,7 +30844,7 @@
       </c>
       <c r="O443" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -30913,7 +30913,7 @@
       <c r="N444" t="inlineStr"/>
       <c r="O444" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -30984,7 +30984,7 @@
       </c>
       <c r="O445" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -31053,7 +31053,7 @@
       <c r="N446" t="inlineStr"/>
       <c r="O446" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -31126,7 +31126,7 @@
       </c>
       <c r="O447" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -31197,7 +31197,7 @@
       </c>
       <c r="O448" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -31270,7 +31270,7 @@
       </c>
       <c r="O449" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -31343,7 +31343,7 @@
       </c>
       <c r="O450" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -31416,7 +31416,7 @@
       </c>
       <c r="O451" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -31485,7 +31485,7 @@
       <c r="N452" t="inlineStr"/>
       <c r="O452" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -31558,7 +31558,7 @@
       </c>
       <c r="O453" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -31627,7 +31627,7 @@
       <c r="N454" t="inlineStr"/>
       <c r="O454" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -31700,7 +31700,7 @@
       </c>
       <c r="O455" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -31773,7 +31773,7 @@
       </c>
       <c r="O456" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -31844,7 +31844,7 @@
       </c>
       <c r="O457" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -31917,7 +31917,7 @@
       </c>
       <c r="O458" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -31986,7 +31986,7 @@
       <c r="N459" t="inlineStr"/>
       <c r="O459" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -32051,7 +32051,7 @@
       <c r="N460" t="inlineStr"/>
       <c r="O460" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -32124,7 +32124,7 @@
       </c>
       <c r="O461" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -32189,7 +32189,7 @@
       <c r="N462" t="inlineStr"/>
       <c r="O462" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -32262,7 +32262,7 @@
       </c>
       <c r="O463" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -32331,7 +32331,7 @@
       <c r="N464" t="inlineStr"/>
       <c r="O464" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -32400,7 +32400,7 @@
       <c r="N465" t="inlineStr"/>
       <c r="O465" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -32473,7 +32473,7 @@
       </c>
       <c r="O466" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -32538,7 +32538,7 @@
       <c r="N467" t="inlineStr"/>
       <c r="O467" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -32601,7 +32601,7 @@
       <c r="N468" t="inlineStr"/>
       <c r="O468" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -32670,7 +32670,7 @@
       <c r="N469" t="inlineStr"/>
       <c r="O469" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -32735,7 +32735,7 @@
       <c r="N470" t="inlineStr"/>
       <c r="O470" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -32804,7 +32804,7 @@
       <c r="N471" t="inlineStr"/>
       <c r="O471" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -32877,7 +32877,7 @@
       </c>
       <c r="O472" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -32948,7 +32948,7 @@
       </c>
       <c r="O473" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -33013,7 +33013,7 @@
       <c r="N474" t="inlineStr"/>
       <c r="O474" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -33076,7 +33076,7 @@
       <c r="N475" t="inlineStr"/>
       <c r="O475" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -33145,7 +33145,7 @@
       </c>
       <c r="O476" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -33214,7 +33214,7 @@
       </c>
       <c r="O477" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -33281,7 +33281,7 @@
       <c r="N478" t="inlineStr"/>
       <c r="O478" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -33344,7 +33344,7 @@
       <c r="N479" t="inlineStr"/>
       <c r="O479" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -33413,7 +33413,7 @@
       <c r="N480" t="inlineStr"/>
       <c r="O480" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -33486,7 +33486,7 @@
       </c>
       <c r="O481" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -33559,7 +33559,7 @@
       </c>
       <c r="O482" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -33632,7 +33632,7 @@
       </c>
       <c r="O483" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -33705,7 +33705,7 @@
       </c>
       <c r="O484" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -33778,7 +33778,7 @@
       </c>
       <c r="O485" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -33851,7 +33851,7 @@
       </c>
       <c r="O486" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -33916,7 +33916,7 @@
       <c r="N487" t="inlineStr"/>
       <c r="O487" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -33973,7 +33973,7 @@
       </c>
       <c r="O488" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -34046,7 +34046,7 @@
       </c>
       <c r="O489" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -34119,7 +34119,7 @@
       </c>
       <c r="O490" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -34188,7 +34188,7 @@
       <c r="N491" t="inlineStr"/>
       <c r="O491" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -34259,7 +34259,7 @@
       </c>
       <c r="O492" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -34324,7 +34324,7 @@
       <c r="N493" t="inlineStr"/>
       <c r="O493" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -34393,7 +34393,7 @@
       <c r="N494" t="inlineStr"/>
       <c r="O494" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -34466,7 +34466,7 @@
       </c>
       <c r="O495" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -34517,7 +34517,7 @@
       <c r="N496" t="inlineStr"/>
       <c r="O496" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -34582,7 +34582,7 @@
       <c r="N497" t="inlineStr"/>
       <c r="O497" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -34655,7 +34655,7 @@
       </c>
       <c r="O498" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -34720,7 +34720,7 @@
       <c r="N499" t="inlineStr"/>
       <c r="O499" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -34793,7 +34793,7 @@
       </c>
       <c r="O500" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -34866,7 +34866,7 @@
       </c>
       <c r="O501" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -34937,7 +34937,7 @@
       </c>
       <c r="O502" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -35010,7 +35010,7 @@
       </c>
       <c r="O503" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -35083,7 +35083,7 @@
       </c>
       <c r="O504" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -35156,7 +35156,7 @@
       </c>
       <c r="O505" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -35229,7 +35229,7 @@
       </c>
       <c r="O506" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -35302,7 +35302,7 @@
       </c>
       <c r="O507" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -35371,7 +35371,7 @@
       <c r="N508" t="inlineStr"/>
       <c r="O508" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -35444,7 +35444,7 @@
       </c>
       <c r="O509" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -35515,7 +35515,7 @@
       </c>
       <c r="O510" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -35586,7 +35586,7 @@
       </c>
       <c r="O511" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -35659,7 +35659,7 @@
       </c>
       <c r="O512" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -35732,7 +35732,7 @@
       </c>
       <c r="O513" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -35801,7 +35801,7 @@
       <c r="N514" t="inlineStr"/>
       <c r="O514" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -35866,7 +35866,7 @@
       <c r="N515" t="inlineStr"/>
       <c r="O515" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -35933,7 +35933,7 @@
       <c r="N516" t="inlineStr"/>
       <c r="O516" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -36006,7 +36006,7 @@
       </c>
       <c r="O517" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -36069,7 +36069,7 @@
       <c r="N518" t="inlineStr"/>
       <c r="O518" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -36130,7 +36130,7 @@
       </c>
       <c r="M519" t="inlineStr">
         <is>
-          <t>Betty Bossi Kürbis &amp;amp; Kichererbsen 5.50 Schweizer Franken</t>
+          <t>Betty Bossi Kürbis &amp;amp; Kichererbsen - Online kein Bestand 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="N519" t="inlineStr">
@@ -36140,7 +36140,7 @@
       </c>
       <c r="O519" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
@@ -36207,7 +36207,7 @@
       <c r="N520" t="inlineStr"/>
       <c r="O520" t="inlineStr">
         <is>
-          <t>2023-01-06 12:58:15</t>
+          <t>2023-01-06 20:51:33</t>
         </is>
       </c>
     </row>
